--- a/data/lossofsale_sg_edappal.xlsx
+++ b/data/lossofsale_sg_edappal.xlsx
@@ -206,7 +206,7 @@
     <col min="3" max="3" width="17.55" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="17.55" customWidth="1"/>
-    <col min="6" max="6" width="24.3" customWidth="1"/>
+    <col min="6" max="6" width="25.650000000000002" customWidth="1"/>
     <col min="7" max="7" width="8.100000000000001" customWidth="1"/>
     <col min="8" max="8" width="32.400000000000006" customWidth="1"/>
     <col min="9" max="9" width="39.150000000000006" customWidth="1"/>
@@ -284,25 +284,25 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">nithin</t>
+          <t xml:space="preserve">majidh</t>
         </is>
       </c>
       <c r="D3" s="65">
-        <v>9448107874</v>
+        <v>7403382362</v>
       </c>
       <c t="inlineStr" r="E3">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F3">
         <is>
-          <t xml:space="preserve">MUHAMMAD SHABIR VT</t>
+          <t xml:space="preserve">AKSHAY. V</t>
         </is>
       </c>
       <c t="inlineStr" r="G3">
@@ -312,12 +312,12 @@
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -327,7 +327,7 @@
       </c>
       <c t="inlineStr" r="K3">
         <is>
-          <t xml:space="preserve">collection not like custmer need 44</t>
+          <t xml:space="preserve">they will decide after confirming with their family in two days</t>
         </is>
       </c>
     </row>
@@ -337,25 +337,25 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">Nashbeen</t>
+          <t xml:space="preserve">asif</t>
         </is>
       </c>
       <c r="D4" s="65">
-        <v>8891481589</v>
+        <v>9526207041</v>
       </c>
       <c t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">18-01-2026</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F4">
         <is>
-          <t xml:space="preserve">AKSHAY. V</t>
+          <t xml:space="preserve">MUHAMMAD SHABIR VT</t>
         </is>
       </c>
       <c t="inlineStr" r="G4">
@@ -365,12 +365,12 @@
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
@@ -380,7 +380,7 @@
       </c>
       <c t="inlineStr" r="K4">
         <is>
-          <t xml:space="preserve">The customer wanted a design with olive green work on white, that too in size 44.</t>
+          <t xml:space="preserve">white simple work kurtha</t>
         </is>
       </c>
     </row>
@@ -390,25 +390,25 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">Ajmal</t>
+          <t xml:space="preserve">SHAMNAS</t>
         </is>
       </c>
       <c r="D5" s="65">
-        <v>7736485119</v>
+        <v>8089588608</v>
       </c>
       <c t="inlineStr" r="E5">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F5">
         <is>
-          <t xml:space="preserve">AKSHAY. V</t>
+          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
         </is>
       </c>
       <c t="inlineStr" r="G5">
@@ -433,7 +433,7 @@
       </c>
       <c t="inlineStr" r="K5">
         <is>
-          <t xml:space="preserve">they will decide after confirming with their family in two days</t>
+          <t xml:space="preserve">CUSTOMER NEED TIME TO CONFIRM THE COSTUME</t>
         </is>
       </c>
     </row>
@@ -443,25 +443,25 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">shizad</t>
+          <t xml:space="preserve">amras</t>
         </is>
       </c>
       <c r="D6" s="65">
-        <v>8086221228</v>
+        <v>7511137751</v>
       </c>
       <c t="inlineStr" r="E6">
         <is>
-          <t xml:space="preserve">23-12-2025</t>
+          <t xml:space="preserve">25-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F6">
         <is>
-          <t xml:space="preserve">SHAHEEN</t>
+          <t xml:space="preserve">MUHAMMAD SHABIR VT</t>
         </is>
       </c>
       <c t="inlineStr" r="G6">
@@ -471,12 +471,12 @@
       </c>
       <c t="inlineStr" r="H6">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I6">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
         </is>
       </c>
       <c t="inlineStr" r="J6">
@@ -486,7 +486,7 @@
       </c>
       <c t="inlineStr" r="K6">
         <is>
-          <t xml:space="preserve">cousins</t>
+          <t xml:space="preserve">size to 30</t>
         </is>
       </c>
     </row>
@@ -496,48 +496,945 @@
       </c>
       <c t="inlineStr" r="B7">
         <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C7">
+        <is>
+          <t xml:space="preserve">raziq</t>
+        </is>
+      </c>
+      <c r="D7" s="65">
+        <v>7306396703</v>
+      </c>
+      <c t="inlineStr" r="E7">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F7">
+        <is>
+          <t xml:space="preserve">SHAHEEN</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G7">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H7">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I7">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J7">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K7">
+        <is>
+          <t xml:space="preserve">over size</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="65">
+        <v>6</v>
+      </c>
+      <c t="inlineStr" r="B8">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C8">
+        <is>
+          <t xml:space="preserve">Jasim</t>
+        </is>
+      </c>
+      <c r="D8" s="65">
+        <v>8139859888</v>
+      </c>
+      <c t="inlineStr" r="E8">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F8">
+        <is>
+          <t xml:space="preserve">AKSHAY. V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G8">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H8">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I8">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J8">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K8">
+        <is>
+          <t xml:space="preserve">WILL DECIDE AFTER CHECKING WITH THEIR FAMILY</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="65">
+        <v>7</v>
+      </c>
+      <c t="inlineStr" r="B9">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C9">
+        <is>
+          <t xml:space="preserve">JASIM</t>
+        </is>
+      </c>
+      <c r="D9" s="65">
+        <v>7994752565</v>
+      </c>
+      <c t="inlineStr" r="E9">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F9">
+        <is>
+          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G9">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H9">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I9">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J9">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K9">
+        <is>
+          <t xml:space="preserve">WILL DECIDE AFTER CHECKING WITH THEIR FAMILY</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="65">
+        <v>8</v>
+      </c>
+      <c t="inlineStr" r="B10">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C10">
+        <is>
+          <t xml:space="preserve">HASHIM</t>
+        </is>
+      </c>
+      <c r="D10" s="65">
+        <v>7025771775</v>
+      </c>
+      <c t="inlineStr" r="E10">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F10">
+        <is>
+          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G10">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H10">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I10">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J10">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K10">
+        <is>
+          <t xml:space="preserve">WILL DECIDE TOMORROW</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="65">
+        <v>9</v>
+      </c>
+      <c t="inlineStr" r="B11">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C11">
+        <is>
+          <t xml:space="preserve">rafi</t>
+        </is>
+      </c>
+      <c r="D11" s="65">
+        <v>773606178</v>
+      </c>
+      <c t="inlineStr" r="E11">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F11">
+        <is>
+          <t xml:space="preserve">SHAHEEN</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G11">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H11">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I11">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J11">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K11">
+        <is>
+          <t xml:space="preserve">all ready another branch booked</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="65">
+        <v>10</v>
+      </c>
+      <c t="inlineStr" r="B12">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C12">
+        <is>
+          <t xml:space="preserve">ani</t>
+        </is>
+      </c>
+      <c r="D12" s="65">
+        <v>9562424005</v>
+      </c>
+      <c t="inlineStr" r="E12">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F12">
+        <is>
+          <t xml:space="preserve">SHAHEEN</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G12">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H12">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I12">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J12">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K12">
+        <is>
+          <t xml:space="preserve">customer need jodhpuri 44</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="65">
+        <v>11</v>
+      </c>
+      <c t="inlineStr" r="B13">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C13">
+        <is>
+          <t xml:space="preserve">ASHWIN</t>
+        </is>
+      </c>
+      <c r="D13" s="65">
+        <v>9048013577</v>
+      </c>
+      <c t="inlineStr" r="E13">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F13">
+        <is>
+          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G13">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H13">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I13">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J13">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K13">
+        <is>
+          <t xml:space="preserve">CUSTOMER WILL CONFIRM IN TWO DAYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="65">
+        <v>12</v>
+      </c>
+      <c t="inlineStr" r="B14">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C14">
+        <is>
+          <t xml:space="preserve">MUJEEB</t>
+        </is>
+      </c>
+      <c r="D14" s="65">
+        <v>9605212628</v>
+      </c>
+      <c t="inlineStr" r="E14">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F14">
+        <is>
+          <t xml:space="preserve">MUHZIN C V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G14">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H14">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I14">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J14">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K14">
+        <is>
+          <t xml:space="preserve">COSTUME COLOR NOT CONFIRMED</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="65">
+        <v>13</v>
+      </c>
+      <c t="inlineStr" r="B15">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C15">
+        <is>
+          <t xml:space="preserve">shamnas</t>
+        </is>
+      </c>
+      <c r="D15" s="65">
+        <v>7994482813</v>
+      </c>
+      <c t="inlineStr" r="E15">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F15">
+        <is>
+          <t xml:space="preserve">SHAHEEN</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G15">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H15">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I15">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c r="J15" s="65">
+        <v>3</v>
+      </c>
+      <c t="inlineStr" r="K15">
+        <is>
+          <t xml:space="preserve">size not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="65">
+        <v>14</v>
+      </c>
+      <c t="inlineStr" r="B16">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C16">
+        <is>
+          <t xml:space="preserve">jafeer</t>
+        </is>
+      </c>
+      <c r="D16" s="65">
+        <v>7593838707</v>
+      </c>
+      <c t="inlineStr" r="E16">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F16">
+        <is>
+          <t xml:space="preserve">MUHAMMED RAFI P V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G16">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H16">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I16">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J16">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K16">
+        <is>
+          <t xml:space="preserve">customer needed product already booked</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="65">
+        <v>15</v>
+      </c>
+      <c t="inlineStr" r="B17">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C17">
+        <is>
+          <t xml:space="preserve">ali</t>
+        </is>
+      </c>
+      <c r="D17" s="65">
+        <v>9846907799</v>
+      </c>
+      <c t="inlineStr" r="E17">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F17">
+        <is>
+          <t xml:space="preserve">AKSHAY. V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G17">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H17">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I17">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J17">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K17">
+        <is>
+          <t xml:space="preserve">customer preferred  sholder design work not available black color kid suite</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="65">
+        <v>16</v>
+      </c>
+      <c t="inlineStr" r="B18">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C18">
+        <is>
+          <t xml:space="preserve">ANWAR</t>
+        </is>
+      </c>
+      <c r="D18" s="65">
+        <v>9539660718</v>
+      </c>
+      <c t="inlineStr" r="E18">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F18">
+        <is>
+          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G18">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H18">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I18">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J18">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K18">
+        <is>
+          <t xml:space="preserve">CUSTOMER PREFERED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="65">
+        <v>17</v>
+      </c>
+      <c t="inlineStr" r="B19">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C19">
+        <is>
+          <t xml:space="preserve">IRSHAD</t>
+        </is>
+      </c>
+      <c r="D19" s="65">
+        <v>7593838707</v>
+      </c>
+      <c t="inlineStr" r="E19">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F19">
+        <is>
+          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G19">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H19">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I19">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c r="J19" s="65">
+        <v>3</v>
+      </c>
+      <c t="inlineStr" r="K19">
+        <is>
+          <t xml:space="preserve">CUSTOMER DRESS NOT FINALISED</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="65">
+        <v>18</v>
+      </c>
+      <c t="inlineStr" r="B20">
+        <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C7">
+      <c t="inlineStr" r="C20">
+        <is>
+          <t xml:space="preserve">nithin</t>
+        </is>
+      </c>
+      <c r="D20" s="65">
+        <v>9448107874</v>
+      </c>
+      <c t="inlineStr" r="E20">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F20">
+        <is>
+          <t xml:space="preserve">MUHAMMAD SHABIR VT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G20">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H20">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I20">
+        <is>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J20">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K20">
+        <is>
+          <t xml:space="preserve">collection not like custmer need 44</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="65">
+        <v>19</v>
+      </c>
+      <c t="inlineStr" r="B21">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C21">
+        <is>
+          <t xml:space="preserve">Nashbeen</t>
+        </is>
+      </c>
+      <c r="D21" s="65">
+        <v>8891481589</v>
+      </c>
+      <c t="inlineStr" r="E21">
+        <is>
+          <t xml:space="preserve">18-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F21">
+        <is>
+          <t xml:space="preserve">AKSHAY. V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G21">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H21">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I21">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J21">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K21">
+        <is>
+          <t xml:space="preserve">The customer wanted a design with olive green work on white, that too in size 44.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="65">
+        <v>20</v>
+      </c>
+      <c t="inlineStr" r="B22">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C22">
+        <is>
+          <t xml:space="preserve">Ajmal</t>
+        </is>
+      </c>
+      <c r="D22" s="65">
+        <v>7736485119</v>
+      </c>
+      <c t="inlineStr" r="E22">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F22">
+        <is>
+          <t xml:space="preserve">AKSHAY. V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G22">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H22">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I22">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J22">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K22">
+        <is>
+          <t xml:space="preserve">they will decide after confirming with their family in two days</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="65">
+        <v>21</v>
+      </c>
+      <c t="inlineStr" r="B23">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C23">
+        <is>
+          <t xml:space="preserve">shizad</t>
+        </is>
+      </c>
+      <c r="D23" s="65">
+        <v>8086221228</v>
+      </c>
+      <c t="inlineStr" r="E23">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F23">
+        <is>
+          <t xml:space="preserve">SHAHEEN</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G23">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H23">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I23">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J23">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K23">
+        <is>
+          <t xml:space="preserve">cousins</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="65">
+        <v>22</v>
+      </c>
+      <c t="inlineStr" r="B24">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C24">
         <is>
           <t xml:space="preserve">asil</t>
         </is>
       </c>
-      <c r="D7" s="65">
+      <c r="D24" s="65">
         <v>9995042734</v>
       </c>
-      <c t="inlineStr" r="E7">
+      <c t="inlineStr" r="E24">
         <is>
           <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="F7">
+      <c t="inlineStr" r="F24">
         <is>
           <t xml:space="preserve">SHAHEEN</t>
         </is>
       </c>
-      <c t="inlineStr" r="G7">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H7">
+      <c t="inlineStr" r="G24">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H24">
         <is>
           <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
-      <c t="inlineStr" r="I7">
+      <c t="inlineStr" r="I24">
         <is>
           <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
-      <c t="inlineStr" r="J7">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K7">
+      <c t="inlineStr" r="J24">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K24">
         <is>
           <t xml:space="preserve">duble brest suit</t>
         </is>

--- a/data/lossofsale_sg_edappal.xlsx
+++ b/data/lossofsale_sg_edappal.xlsx
@@ -284,25 +284,25 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">majidh</t>
+          <t xml:space="preserve">roshan</t>
         </is>
       </c>
       <c r="D3" s="65">
-        <v>7403382362</v>
+        <v>8129857669</v>
       </c>
       <c t="inlineStr" r="E3">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">02-02-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F3">
         <is>
-          <t xml:space="preserve">AKSHAY. V</t>
+          <t xml:space="preserve">SHAHEEN</t>
         </is>
       </c>
       <c t="inlineStr" r="G3">
@@ -312,12 +312,12 @@
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -327,7 +327,7 @@
       </c>
       <c t="inlineStr" r="K3">
         <is>
-          <t xml:space="preserve">they will decide after confirming with their family in two days</t>
+          <t xml:space="preserve">family discussed then will come back</t>
         </is>
       </c>
     </row>
@@ -337,20 +337,20 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">asif</t>
+          <t xml:space="preserve">Mubashir</t>
         </is>
       </c>
       <c r="D4" s="65">
-        <v>9526207041</v>
+        <v>9072281868</v>
       </c>
       <c t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">04-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F4">
@@ -365,12 +365,12 @@
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
@@ -380,7 +380,7 @@
       </c>
       <c t="inlineStr" r="K4">
         <is>
-          <t xml:space="preserve">white simple work kurtha</t>
+          <t xml:space="preserve">big size 46</t>
         </is>
       </c>
     </row>
@@ -390,25 +390,25 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">SHAMNAS</t>
+          <t xml:space="preserve">Faiz</t>
         </is>
       </c>
       <c r="D5" s="65">
-        <v>8089588608</v>
+        <v>7034385985</v>
       </c>
       <c t="inlineStr" r="E5">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F5">
         <is>
-          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+          <t xml:space="preserve">AKSHAY. V</t>
         </is>
       </c>
       <c t="inlineStr" r="G5">
@@ -433,7 +433,7 @@
       </c>
       <c t="inlineStr" r="K5">
         <is>
-          <t xml:space="preserve">CUSTOMER NEED TIME TO CONFIRM THE COSTUME</t>
+          <t xml:space="preserve">they will decide after confirming with their family in two days</t>
         </is>
       </c>
     </row>
@@ -443,25 +443,25 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">amras</t>
+          <t xml:space="preserve">vishnu</t>
         </is>
       </c>
       <c r="D6" s="65">
-        <v>7511137751</v>
+        <v>9645060929</v>
       </c>
       <c t="inlineStr" r="E6">
         <is>
-          <t xml:space="preserve">25-12-2025</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F6">
         <is>
-          <t xml:space="preserve">MUHAMMAD SHABIR VT</t>
+          <t xml:space="preserve">SHAHEEN</t>
         </is>
       </c>
       <c t="inlineStr" r="G6">
@@ -471,12 +471,12 @@
       </c>
       <c t="inlineStr" r="H6">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I6">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J6">
@@ -486,7 +486,7 @@
       </c>
       <c t="inlineStr" r="K6">
         <is>
-          <t xml:space="preserve">size to 30</t>
+          <t xml:space="preserve">INTERVIEW</t>
         </is>
       </c>
     </row>
@@ -496,25 +496,25 @@
       </c>
       <c t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C7">
         <is>
-          <t xml:space="preserve">raziq</t>
+          <t xml:space="preserve">Sameer</t>
         </is>
       </c>
       <c r="D7" s="65">
-        <v>7306396703</v>
+        <v>9847002217</v>
       </c>
       <c t="inlineStr" r="E7">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">25-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F7">
         <is>
-          <t xml:space="preserve">SHAHEEN</t>
+          <t xml:space="preserve">AKSHAY. V</t>
         </is>
       </c>
       <c t="inlineStr" r="G7">
@@ -524,12 +524,12 @@
       </c>
       <c t="inlineStr" r="H7">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRICING</t>
         </is>
       </c>
       <c t="inlineStr" r="I7">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">RENT TO HIGH</t>
         </is>
       </c>
       <c t="inlineStr" r="J7">
@@ -539,7 +539,7 @@
       </c>
       <c t="inlineStr" r="K7">
         <is>
-          <t xml:space="preserve">over size</t>
+          <t xml:space="preserve">The customer only needed a waistcoat, but they looked and said that a premium suit, no pants, no blazer, and the price was higher.</t>
         </is>
       </c>
     </row>
@@ -549,25 +549,25 @@
       </c>
       <c t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C8">
         <is>
-          <t xml:space="preserve">Jasim</t>
+          <t xml:space="preserve">sinan</t>
         </is>
       </c>
       <c r="D8" s="65">
-        <v>8139859888</v>
+        <v>9539842423</v>
       </c>
       <c t="inlineStr" r="E8">
         <is>
-          <t xml:space="preserve">25-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F8">
         <is>
-          <t xml:space="preserve">AKSHAY. V</t>
+          <t xml:space="preserve">MUHAMMED RAFI P V</t>
         </is>
       </c>
       <c t="inlineStr" r="G8">
@@ -577,12 +577,12 @@
       </c>
       <c t="inlineStr" r="H8">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I8">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J8">
@@ -592,7 +592,7 @@
       </c>
       <c t="inlineStr" r="K8">
         <is>
-          <t xml:space="preserve">WILL DECIDE AFTER CHECKING WITH THEIR FAMILY</t>
+          <t xml:space="preserve">red kurtha</t>
         </is>
       </c>
     </row>
@@ -602,25 +602,25 @@
       </c>
       <c t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C9">
         <is>
-          <t xml:space="preserve">JASIM</t>
+          <t xml:space="preserve">Ramshi</t>
         </is>
       </c>
       <c r="D9" s="65">
-        <v>7994752565</v>
+        <v>8891157455</v>
       </c>
       <c t="inlineStr" r="E9">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">24-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F9">
         <is>
-          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+          <t xml:space="preserve">AKSHAY. V</t>
         </is>
       </c>
       <c t="inlineStr" r="G9">
@@ -645,7 +645,7 @@
       </c>
       <c t="inlineStr" r="K9">
         <is>
-          <t xml:space="preserve">WILL DECIDE AFTER CHECKING WITH THEIR FAMILY</t>
+          <t xml:space="preserve">they will decide after confirming with their family in two days</t>
         </is>
       </c>
     </row>
@@ -655,25 +655,25 @@
       </c>
       <c t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C10">
         <is>
-          <t xml:space="preserve">HASHIM</t>
+          <t xml:space="preserve">shahid</t>
         </is>
       </c>
       <c r="D10" s="65">
-        <v>7025771775</v>
+        <v>9605764979</v>
       </c>
       <c t="inlineStr" r="E10">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F10">
         <is>
-          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+          <t xml:space="preserve">MUHAMMED RAFI P V</t>
         </is>
       </c>
       <c t="inlineStr" r="G10">
@@ -683,12 +683,12 @@
       </c>
       <c t="inlineStr" r="H10">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I10">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J10">
@@ -698,7 +698,7 @@
       </c>
       <c t="inlineStr" r="K10">
         <is>
-          <t xml:space="preserve">WILL DECIDE TOMORROW</t>
+          <t xml:space="preserve">Customer Needed Black and Gold Heavy Work Bangala</t>
         </is>
       </c>
     </row>
@@ -708,25 +708,25 @@
       </c>
       <c t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C11">
         <is>
-          <t xml:space="preserve">rafi</t>
+          <t xml:space="preserve">shafeer</t>
         </is>
       </c>
       <c r="D11" s="65">
-        <v>773606178</v>
+        <v>9074268812</v>
       </c>
       <c t="inlineStr" r="E11">
         <is>
-          <t xml:space="preserve">24-12-2025</t>
+          <t xml:space="preserve">08-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F11">
         <is>
-          <t xml:space="preserve">SHAHEEN</t>
+          <t xml:space="preserve">MUHAMMED RAFI P V</t>
         </is>
       </c>
       <c t="inlineStr" r="G11">
@@ -736,12 +736,12 @@
       </c>
       <c t="inlineStr" r="H11">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I11">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J11">
@@ -751,7 +751,7 @@
       </c>
       <c t="inlineStr" r="K11">
         <is>
-          <t xml:space="preserve">all ready another branch booked</t>
+          <t xml:space="preserve">The customer liked the product, but he could confirm it by asking everyone in the family</t>
         </is>
       </c>
     </row>
@@ -761,20 +761,20 @@
       </c>
       <c t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C12">
         <is>
-          <t xml:space="preserve">ani</t>
+          <t xml:space="preserve">anio</t>
         </is>
       </c>
       <c r="D12" s="65">
-        <v>9562424005</v>
+        <v>8526270776</v>
       </c>
       <c t="inlineStr" r="E12">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F12">
@@ -789,12 +789,12 @@
       </c>
       <c t="inlineStr" r="H12">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I12">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">BUDGET RESTRICTIONS</t>
         </is>
       </c>
       <c t="inlineStr" r="J12">
@@ -804,7 +804,7 @@
       </c>
       <c t="inlineStr" r="K12">
         <is>
-          <t xml:space="preserve">customer need jodhpuri 44</t>
+          <t xml:space="preserve">official purpose</t>
         </is>
       </c>
     </row>
@@ -814,25 +814,25 @@
       </c>
       <c t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C13">
         <is>
-          <t xml:space="preserve">ASHWIN</t>
+          <t xml:space="preserve">fasil</t>
         </is>
       </c>
       <c r="D13" s="65">
-        <v>9048013577</v>
+        <v>7736704175</v>
       </c>
       <c t="inlineStr" r="E13">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">23-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F13">
         <is>
-          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+          <t xml:space="preserve">MUHAMMED RAFI P V</t>
         </is>
       </c>
       <c t="inlineStr" r="G13">
@@ -857,7 +857,7 @@
       </c>
       <c t="inlineStr" r="K13">
         <is>
-          <t xml:space="preserve">CUSTOMER WILL CONFIRM IN TWO DAYS</t>
+          <t xml:space="preserve">The customer said he wanted a beige suit and will come to shop tomorrow with his brother</t>
         </is>
       </c>
     </row>
@@ -867,25 +867,25 @@
       </c>
       <c t="inlineStr" r="B14">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C14">
         <is>
-          <t xml:space="preserve">MUJEEB</t>
+          <t xml:space="preserve">Navushir</t>
         </is>
       </c>
       <c r="D14" s="65">
-        <v>9605212628</v>
+        <v>9605870207</v>
       </c>
       <c t="inlineStr" r="E14">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F14">
         <is>
-          <t xml:space="preserve">MUHZIN C V</t>
+          <t xml:space="preserve">AKSHAY. V</t>
         </is>
       </c>
       <c t="inlineStr" r="G14">
@@ -910,7 +910,7 @@
       </c>
       <c t="inlineStr" r="K14">
         <is>
-          <t xml:space="preserve">COSTUME COLOR NOT CONFIRMED</t>
+          <t xml:space="preserve">they will decide after confirming with their family in two days</t>
         </is>
       </c>
     </row>
@@ -920,25 +920,25 @@
       </c>
       <c t="inlineStr" r="B15">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C15">
         <is>
-          <t xml:space="preserve">shamnas</t>
+          <t xml:space="preserve">ARSHAD</t>
         </is>
       </c>
       <c r="D15" s="65">
-        <v>7994482813</v>
+        <v>8589909549</v>
       </c>
       <c t="inlineStr" r="E15">
         <is>
-          <t xml:space="preserve">24-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F15">
         <is>
-          <t xml:space="preserve">SHAHEEN</t>
+          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
         </is>
       </c>
       <c t="inlineStr" r="G15">
@@ -948,20 +948,22 @@
       </c>
       <c t="inlineStr" r="H15">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I15">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
-        </is>
-      </c>
-      <c r="J15" s="65">
-        <v>3</v>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J15">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
       </c>
       <c t="inlineStr" r="K15">
         <is>
-          <t xml:space="preserve">size not available</t>
+          <t xml:space="preserve">CUSTOMER NEED TIME TO CONFIRM</t>
         </is>
       </c>
     </row>
@@ -971,20 +973,20 @@
       </c>
       <c t="inlineStr" r="B16">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C16">
         <is>
-          <t xml:space="preserve">jafeer</t>
+          <t xml:space="preserve">SHAHINA</t>
         </is>
       </c>
       <c r="D16" s="65">
-        <v>7593838707</v>
+        <v>9048766541</v>
       </c>
       <c t="inlineStr" r="E16">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F16">
@@ -999,12 +1001,12 @@
       </c>
       <c t="inlineStr" r="H16">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="I16">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="J16">
@@ -1014,7 +1016,7 @@
       </c>
       <c t="inlineStr" r="K16">
         <is>
-          <t xml:space="preserve">customer needed product already booked</t>
+          <t xml:space="preserve">RENT OUT</t>
         </is>
       </c>
     </row>
@@ -1024,25 +1026,25 @@
       </c>
       <c t="inlineStr" r="B17">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C17">
         <is>
-          <t xml:space="preserve">ali</t>
+          <t xml:space="preserve">anas</t>
         </is>
       </c>
       <c r="D17" s="65">
-        <v>9846907799</v>
+        <v>8606714453</v>
       </c>
       <c t="inlineStr" r="E17">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">25-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F17">
         <is>
-          <t xml:space="preserve">AKSHAY. V</t>
+          <t xml:space="preserve">MUHAMMED RAFI P V</t>
         </is>
       </c>
       <c t="inlineStr" r="G17">
@@ -1052,12 +1054,12 @@
       </c>
       <c t="inlineStr" r="H17">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I17">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J17">
@@ -1067,7 +1069,7 @@
       </c>
       <c t="inlineStr" r="K17">
         <is>
-          <t xml:space="preserve">customer preferred  sholder design work not available black color kid suite</t>
+          <t xml:space="preserve">customer tomorrow confirm</t>
         </is>
       </c>
     </row>
@@ -1077,16 +1079,16 @@
       </c>
       <c t="inlineStr" r="B18">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C18">
         <is>
-          <t xml:space="preserve">ANWAR</t>
+          <t xml:space="preserve">irshad</t>
         </is>
       </c>
       <c r="D18" s="65">
-        <v>9539660718</v>
+        <v>703471944</v>
       </c>
       <c t="inlineStr" r="E18">
         <is>
@@ -1095,7 +1097,7 @@
       </c>
       <c t="inlineStr" r="F18">
         <is>
-          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+          <t xml:space="preserve">SHAHEEN</t>
         </is>
       </c>
       <c t="inlineStr" r="G18">
@@ -1105,12 +1107,12 @@
       </c>
       <c t="inlineStr" r="H18">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I18">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J18">
@@ -1120,7 +1122,7 @@
       </c>
       <c t="inlineStr" r="K18">
         <is>
-          <t xml:space="preserve">CUSTOMER PREFERED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">kids stiching</t>
         </is>
       </c>
     </row>
@@ -1130,25 +1132,25 @@
       </c>
       <c t="inlineStr" r="B19">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C19">
         <is>
-          <t xml:space="preserve">IRSHAD</t>
+          <t xml:space="preserve">ismayil</t>
         </is>
       </c>
       <c r="D19" s="65">
-        <v>7593838707</v>
+        <v>9995154764</v>
       </c>
       <c t="inlineStr" r="E19">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F19">
         <is>
-          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+          <t xml:space="preserve">SHAHEEN</t>
         </is>
       </c>
       <c t="inlineStr" r="G19">
@@ -1158,20 +1160,22 @@
       </c>
       <c t="inlineStr" r="H19">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I19">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
-        </is>
-      </c>
-      <c r="J19" s="65">
-        <v>3</v>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J19">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
       </c>
       <c t="inlineStr" r="K19">
         <is>
-          <t xml:space="preserve">CUSTOMER DRESS NOT FINALISED</t>
+          <t xml:space="preserve">small size</t>
         </is>
       </c>
     </row>
@@ -1181,25 +1185,25 @@
       </c>
       <c t="inlineStr" r="B20">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C20">
         <is>
-          <t xml:space="preserve">nithin</t>
+          <t xml:space="preserve">adhil</t>
         </is>
       </c>
       <c r="D20" s="65">
-        <v>9448107874</v>
+        <v>9746265019</v>
       </c>
       <c t="inlineStr" r="E20">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">25-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F20">
         <is>
-          <t xml:space="preserve">MUHAMMAD SHABIR VT</t>
+          <t xml:space="preserve">SHAHEEN</t>
         </is>
       </c>
       <c t="inlineStr" r="G20">
@@ -1209,12 +1213,12 @@
       </c>
       <c t="inlineStr" r="H20">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I20">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J20">
@@ -1224,7 +1228,7 @@
       </c>
       <c t="inlineStr" r="K20">
         <is>
-          <t xml:space="preserve">collection not like custmer need 44</t>
+          <t xml:space="preserve">kurtha bulk</t>
         </is>
       </c>
     </row>
@@ -1234,25 +1238,25 @@
       </c>
       <c t="inlineStr" r="B21">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C21">
         <is>
-          <t xml:space="preserve">Nashbeen</t>
+          <t xml:space="preserve">vyshak</t>
         </is>
       </c>
       <c r="D21" s="65">
-        <v>8891481589</v>
+        <v>6238630239</v>
       </c>
       <c t="inlineStr" r="E21">
         <is>
-          <t xml:space="preserve">18-01-2026</t>
+          <t xml:space="preserve">23-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F21">
         <is>
-          <t xml:space="preserve">AKSHAY. V</t>
+          <t xml:space="preserve">SHAHEEN</t>
         </is>
       </c>
       <c t="inlineStr" r="G21">
@@ -1262,12 +1266,12 @@
       </c>
       <c t="inlineStr" r="H21">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I21">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J21">
@@ -1277,7 +1281,7 @@
       </c>
       <c t="inlineStr" r="K21">
         <is>
-          <t xml:space="preserve">The customer wanted a design with olive green work on white, that too in size 44.</t>
+          <t xml:space="preserve">.</t>
         </is>
       </c>
     </row>
@@ -1287,25 +1291,25 @@
       </c>
       <c t="inlineStr" r="B22">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C22">
         <is>
-          <t xml:space="preserve">Ajmal</t>
+          <t xml:space="preserve">rishad</t>
         </is>
       </c>
       <c r="D22" s="65">
-        <v>7736485119</v>
+        <v>9526056624</v>
       </c>
       <c t="inlineStr" r="E22">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">17-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F22">
         <is>
-          <t xml:space="preserve">AKSHAY. V</t>
+          <t xml:space="preserve">MUHAMMED RAFI P V</t>
         </is>
       </c>
       <c t="inlineStr" r="G22">
@@ -1315,12 +1319,12 @@
       </c>
       <c t="inlineStr" r="H22">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I22">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J22">
@@ -1330,7 +1334,7 @@
       </c>
       <c t="inlineStr" r="K22">
         <is>
-          <t xml:space="preserve">they will decide after confirming with their family in two days</t>
+          <t xml:space="preserve">bulk quantity order enquiry.</t>
         </is>
       </c>
     </row>
@@ -1340,25 +1344,25 @@
       </c>
       <c t="inlineStr" r="B23">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C23">
         <is>
-          <t xml:space="preserve">shizad</t>
+          <t xml:space="preserve">majidh</t>
         </is>
       </c>
       <c r="D23" s="65">
-        <v>8086221228</v>
+        <v>7403382362</v>
       </c>
       <c t="inlineStr" r="E23">
         <is>
-          <t xml:space="preserve">23-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F23">
         <is>
-          <t xml:space="preserve">SHAHEEN</t>
+          <t xml:space="preserve">AKSHAY. V</t>
         </is>
       </c>
       <c t="inlineStr" r="G23">
@@ -1368,12 +1372,12 @@
       </c>
       <c t="inlineStr" r="H23">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I23">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J23">
@@ -1383,7 +1387,7 @@
       </c>
       <c t="inlineStr" r="K23">
         <is>
-          <t xml:space="preserve">cousins</t>
+          <t xml:space="preserve">they will decide after confirming with their family in two days</t>
         </is>
       </c>
     </row>
@@ -1393,50 +1397,1737 @@
       </c>
       <c t="inlineStr" r="B24">
         <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C24">
+        <is>
+          <t xml:space="preserve">asif</t>
+        </is>
+      </c>
+      <c r="D24" s="65">
+        <v>9526207041</v>
+      </c>
+      <c t="inlineStr" r="E24">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F24">
+        <is>
+          <t xml:space="preserve">MUHAMMAD SHABIR VT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G24">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H24">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I24">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J24">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K24">
+        <is>
+          <t xml:space="preserve">white simple work kurtha</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="65">
+        <v>23</v>
+      </c>
+      <c t="inlineStr" r="B25">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C25">
+        <is>
+          <t xml:space="preserve">SHAMNAS</t>
+        </is>
+      </c>
+      <c r="D25" s="65">
+        <v>8089588608</v>
+      </c>
+      <c t="inlineStr" r="E25">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F25">
+        <is>
+          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G25">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H25">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I25">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J25">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K25">
+        <is>
+          <t xml:space="preserve">CUSTOMER NEED TIME TO CONFIRM THE COSTUME</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="65">
+        <v>24</v>
+      </c>
+      <c t="inlineStr" r="B26">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C26">
+        <is>
+          <t xml:space="preserve">amras</t>
+        </is>
+      </c>
+      <c r="D26" s="65">
+        <v>7511137751</v>
+      </c>
+      <c t="inlineStr" r="E26">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F26">
+        <is>
+          <t xml:space="preserve">MUHAMMAD SHABIR VT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G26">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H26">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I26">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J26">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K26">
+        <is>
+          <t xml:space="preserve">size to 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="65">
+        <v>25</v>
+      </c>
+      <c t="inlineStr" r="B27">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C27">
+        <is>
+          <t xml:space="preserve">raziq</t>
+        </is>
+      </c>
+      <c r="D27" s="65">
+        <v>7306396703</v>
+      </c>
+      <c t="inlineStr" r="E27">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F27">
+        <is>
+          <t xml:space="preserve">SHAHEEN</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G27">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H27">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I27">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J27">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K27">
+        <is>
+          <t xml:space="preserve">over size</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="65">
+        <v>26</v>
+      </c>
+      <c t="inlineStr" r="B28">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C28">
+        <is>
+          <t xml:space="preserve">Jasim</t>
+        </is>
+      </c>
+      <c r="D28" s="65">
+        <v>8139859888</v>
+      </c>
+      <c t="inlineStr" r="E28">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F28">
+        <is>
+          <t xml:space="preserve">AKSHAY. V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G28">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H28">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I28">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J28">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K28">
+        <is>
+          <t xml:space="preserve">WILL DECIDE AFTER CHECKING WITH THEIR FAMILY</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="65">
+        <v>27</v>
+      </c>
+      <c t="inlineStr" r="B29">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C29">
+        <is>
+          <t xml:space="preserve">JASIM</t>
+        </is>
+      </c>
+      <c r="D29" s="65">
+        <v>7994752565</v>
+      </c>
+      <c t="inlineStr" r="E29">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F29">
+        <is>
+          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G29">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H29">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I29">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J29">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K29">
+        <is>
+          <t xml:space="preserve">WILL DECIDE AFTER CHECKING WITH THEIR FAMILY</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="65">
+        <v>28</v>
+      </c>
+      <c t="inlineStr" r="B30">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C30">
+        <is>
+          <t xml:space="preserve">HASHIM</t>
+        </is>
+      </c>
+      <c r="D30" s="65">
+        <v>7025771775</v>
+      </c>
+      <c t="inlineStr" r="E30">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F30">
+        <is>
+          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G30">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H30">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I30">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J30">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K30">
+        <is>
+          <t xml:space="preserve">WILL DECIDE TOMORROW</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="65">
+        <v>29</v>
+      </c>
+      <c t="inlineStr" r="B31">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C31">
+        <is>
+          <t xml:space="preserve">rafi</t>
+        </is>
+      </c>
+      <c r="D31" s="65">
+        <v>773606178</v>
+      </c>
+      <c t="inlineStr" r="E31">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F31">
+        <is>
+          <t xml:space="preserve">SHAHEEN</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G31">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H31">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I31">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J31">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K31">
+        <is>
+          <t xml:space="preserve">all ready another branch booked</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="65">
+        <v>30</v>
+      </c>
+      <c t="inlineStr" r="B32">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C32">
+        <is>
+          <t xml:space="preserve">ani</t>
+        </is>
+      </c>
+      <c r="D32" s="65">
+        <v>9562424005</v>
+      </c>
+      <c t="inlineStr" r="E32">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F32">
+        <is>
+          <t xml:space="preserve">SHAHEEN</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G32">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H32">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I32">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J32">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K32">
+        <is>
+          <t xml:space="preserve">customer need jodhpuri 44</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="65">
+        <v>31</v>
+      </c>
+      <c t="inlineStr" r="B33">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C33">
+        <is>
+          <t xml:space="preserve">ASHWIN</t>
+        </is>
+      </c>
+      <c r="D33" s="65">
+        <v>9048013577</v>
+      </c>
+      <c t="inlineStr" r="E33">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F33">
+        <is>
+          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G33">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H33">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I33">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J33">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K33">
+        <is>
+          <t xml:space="preserve">CUSTOMER WILL CONFIRM IN TWO DAYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="65">
+        <v>32</v>
+      </c>
+      <c t="inlineStr" r="B34">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C34">
+        <is>
+          <t xml:space="preserve">MUJEEB</t>
+        </is>
+      </c>
+      <c r="D34" s="65">
+        <v>9605212628</v>
+      </c>
+      <c t="inlineStr" r="E34">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F34">
+        <is>
+          <t xml:space="preserve">MUHZIN C V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G34">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H34">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I34">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J34">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K34">
+        <is>
+          <t xml:space="preserve">COSTUME COLOR NOT CONFIRMED</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="65">
+        <v>33</v>
+      </c>
+      <c t="inlineStr" r="B35">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C35">
+        <is>
+          <t xml:space="preserve">shamnas</t>
+        </is>
+      </c>
+      <c r="D35" s="65">
+        <v>7994482813</v>
+      </c>
+      <c t="inlineStr" r="E35">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F35">
+        <is>
+          <t xml:space="preserve">SHAHEEN</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G35">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H35">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I35">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c r="J35" s="65">
+        <v>3</v>
+      </c>
+      <c t="inlineStr" r="K35">
+        <is>
+          <t xml:space="preserve">size not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="65">
+        <v>34</v>
+      </c>
+      <c t="inlineStr" r="B36">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C36">
+        <is>
+          <t xml:space="preserve">jafeer</t>
+        </is>
+      </c>
+      <c r="D36" s="65">
+        <v>7593838707</v>
+      </c>
+      <c t="inlineStr" r="E36">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F36">
+        <is>
+          <t xml:space="preserve">MUHAMMED RAFI P V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G36">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H36">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I36">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J36">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K36">
+        <is>
+          <t xml:space="preserve">customer needed product already booked</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="65">
+        <v>35</v>
+      </c>
+      <c t="inlineStr" r="B37">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C37">
+        <is>
+          <t xml:space="preserve">ali</t>
+        </is>
+      </c>
+      <c r="D37" s="65">
+        <v>9846907799</v>
+      </c>
+      <c t="inlineStr" r="E37">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F37">
+        <is>
+          <t xml:space="preserve">AKSHAY. V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G37">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H37">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I37">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J37">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K37">
+        <is>
+          <t xml:space="preserve">customer preferred  sholder design work not available black color kid suite</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="65">
+        <v>36</v>
+      </c>
+      <c t="inlineStr" r="B38">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C38">
+        <is>
+          <t xml:space="preserve">ANWAR</t>
+        </is>
+      </c>
+      <c r="D38" s="65">
+        <v>9539660718</v>
+      </c>
+      <c t="inlineStr" r="E38">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F38">
+        <is>
+          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G38">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H38">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I38">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J38">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K38">
+        <is>
+          <t xml:space="preserve">CUSTOMER PREFERED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="65">
+        <v>37</v>
+      </c>
+      <c t="inlineStr" r="B39">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C39">
+        <is>
+          <t xml:space="preserve">IRSHAD</t>
+        </is>
+      </c>
+      <c r="D39" s="65">
+        <v>7593838707</v>
+      </c>
+      <c t="inlineStr" r="E39">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F39">
+        <is>
+          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G39">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H39">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I39">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c r="J39" s="65">
+        <v>3</v>
+      </c>
+      <c t="inlineStr" r="K39">
+        <is>
+          <t xml:space="preserve">CUSTOMER DRESS NOT FINALISED</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="65">
+        <v>38</v>
+      </c>
+      <c t="inlineStr" r="B40">
+        <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C24">
+      <c t="inlineStr" r="C40">
+        <is>
+          <t xml:space="preserve">nithin</t>
+        </is>
+      </c>
+      <c r="D40" s="65">
+        <v>9448107874</v>
+      </c>
+      <c t="inlineStr" r="E40">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F40">
+        <is>
+          <t xml:space="preserve">MUHAMMAD SHABIR VT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G40">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H40">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I40">
+        <is>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J40">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K40">
+        <is>
+          <t xml:space="preserve">collection not like custmer need 44</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="65">
+        <v>39</v>
+      </c>
+      <c t="inlineStr" r="B41">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C41">
+        <is>
+          <t xml:space="preserve">Nashbeen</t>
+        </is>
+      </c>
+      <c r="D41" s="65">
+        <v>8891481589</v>
+      </c>
+      <c t="inlineStr" r="E41">
+        <is>
+          <t xml:space="preserve">18-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F41">
+        <is>
+          <t xml:space="preserve">AKSHAY. V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G41">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H41">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I41">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J41">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K41">
+        <is>
+          <t xml:space="preserve">The customer wanted a design with olive green work on white, that too in size 44.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="65">
+        <v>40</v>
+      </c>
+      <c t="inlineStr" r="B42">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C42">
+        <is>
+          <t xml:space="preserve">Ajmal</t>
+        </is>
+      </c>
+      <c r="D42" s="65">
+        <v>7736485119</v>
+      </c>
+      <c t="inlineStr" r="E42">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F42">
+        <is>
+          <t xml:space="preserve">AKSHAY. V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G42">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H42">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I42">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J42">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K42">
+        <is>
+          <t xml:space="preserve">they will decide after confirming with their family in two days</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="65">
+        <v>41</v>
+      </c>
+      <c t="inlineStr" r="B43">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C43">
+        <is>
+          <t xml:space="preserve">shizad</t>
+        </is>
+      </c>
+      <c r="D43" s="65">
+        <v>8086221228</v>
+      </c>
+      <c t="inlineStr" r="E43">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F43">
+        <is>
+          <t xml:space="preserve">SHAHEEN</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G43">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H43">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I43">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J43">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K43">
+        <is>
+          <t xml:space="preserve">cousins</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="65">
+        <v>42</v>
+      </c>
+      <c t="inlineStr" r="B44">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C44">
         <is>
           <t xml:space="preserve">asil</t>
         </is>
       </c>
-      <c r="D24" s="65">
+      <c r="D44" s="65">
         <v>9995042734</v>
       </c>
-      <c t="inlineStr" r="E24">
+      <c t="inlineStr" r="E44">
         <is>
           <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="F24">
+      <c t="inlineStr" r="F44">
         <is>
           <t xml:space="preserve">SHAHEEN</t>
         </is>
       </c>
-      <c t="inlineStr" r="G24">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H24">
+      <c t="inlineStr" r="G44">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H44">
         <is>
           <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
-      <c t="inlineStr" r="I24">
+      <c t="inlineStr" r="I44">
         <is>
           <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
-      <c t="inlineStr" r="J24">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K24">
+      <c t="inlineStr" r="J44">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K44">
         <is>
           <t xml:space="preserve">duble brest suit</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="65">
+        <v>43</v>
+      </c>
+      <c t="inlineStr" r="B45">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C45">
+        <is>
+          <t xml:space="preserve">THOUFEEQ</t>
+        </is>
+      </c>
+      <c r="D45" s="65">
+        <v>9809313079</v>
+      </c>
+      <c t="inlineStr" r="E45">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F45">
+        <is>
+          <t xml:space="preserve">SHAHEEN</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G45">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H45">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I45">
+        <is>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J45">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K45">
+        <is>
+          <t xml:space="preserve">BIEGE SUITE HE WILL VISIT CKD STORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="65">
+        <v>44</v>
+      </c>
+      <c t="inlineStr" r="B46">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C46">
+        <is>
+          <t xml:space="preserve">ashif</t>
+        </is>
+      </c>
+      <c r="D46" s="65">
+        <v>9895801247</v>
+      </c>
+      <c t="inlineStr" r="E46">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F46">
+        <is>
+          <t xml:space="preserve">SHAHEEN</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G46">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H46">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I46">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J46">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K46">
+        <is>
+          <t xml:space="preserve">boot cut pant duble brest suites</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="65">
+        <v>45</v>
+      </c>
+      <c t="inlineStr" r="B47">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C47">
+        <is>
+          <t xml:space="preserve">VISHNU</t>
+        </is>
+      </c>
+      <c r="D47" s="65">
+        <v>8089083780</v>
+      </c>
+      <c t="inlineStr" r="E47">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F47">
+        <is>
+          <t xml:space="preserve">SREEJESH C S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G47">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H47">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I47">
+        <is>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J47">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K47">
+        <is>
+          <t xml:space="preserve">VELVET MATEARIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="65">
+        <v>46</v>
+      </c>
+      <c t="inlineStr" r="B48">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C48">
+        <is>
+          <t xml:space="preserve">ADHIL</t>
+        </is>
+      </c>
+      <c r="D48" s="65">
+        <v>8086555824</v>
+      </c>
+      <c t="inlineStr" r="E48">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F48">
+        <is>
+          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G48">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H48">
+        <is>
+          <t xml:space="preserve">PRICING</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I48">
+        <is>
+          <t xml:space="preserve">RENT TO HIGH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J48">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="65">
+        <v>47</v>
+      </c>
+      <c t="inlineStr" r="B49">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C49">
+        <is>
+          <t xml:space="preserve">faiz</t>
+        </is>
+      </c>
+      <c r="D49" s="65">
+        <v>9567646605</v>
+      </c>
+      <c t="inlineStr" r="E49">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F49">
+        <is>
+          <t xml:space="preserve">AKSHAY. V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G49">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H49">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I49">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J49">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K49">
+        <is>
+          <t xml:space="preserve">they will decide after confirming with their family in two days</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="65">
+        <v>48</v>
+      </c>
+      <c t="inlineStr" r="B50">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C50">
+        <is>
+          <t xml:space="preserve">shahul</t>
+        </is>
+      </c>
+      <c r="D50" s="65">
+        <v>9846806656</v>
+      </c>
+      <c t="inlineStr" r="E50">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F50">
+        <is>
+          <t xml:space="preserve">AKSHAY. V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G50">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H50">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I50">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J50">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K50">
+        <is>
+          <t xml:space="preserve">they will decide after confirming with their family in two days</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="65">
+        <v>49</v>
+      </c>
+      <c t="inlineStr" r="B51">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C51">
+        <is>
+          <t xml:space="preserve">slman</t>
+        </is>
+      </c>
+      <c r="D51" s="65">
+        <v>8281429170</v>
+      </c>
+      <c t="inlineStr" r="E51">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F51">
+        <is>
+          <t xml:space="preserve">MUHAMMED RAFI P V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G51">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H51">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I51">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J51">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K51">
+        <is>
+          <t xml:space="preserve">customer needed double breasted</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="65">
+        <v>50</v>
+      </c>
+      <c t="inlineStr" r="B52">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C52">
+        <is>
+          <t xml:space="preserve">ALDHIH</t>
+        </is>
+      </c>
+      <c r="D52" s="65">
+        <v>9895441234</v>
+      </c>
+      <c t="inlineStr" r="E52">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F52">
+        <is>
+          <t xml:space="preserve">SREEJESH C S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G52">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H52">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I52">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J52">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K52">
+        <is>
+          <t xml:space="preserve">WILL CONFIRM IN TWO DAYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="65">
+        <v>51</v>
+      </c>
+      <c t="inlineStr" r="B53">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C53">
+        <is>
+          <t xml:space="preserve">nihal</t>
+        </is>
+      </c>
+      <c r="D53" s="65">
+        <v>8593983084</v>
+      </c>
+      <c t="inlineStr" r="E53">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F53">
+        <is>
+          <t xml:space="preserve">MUHAMMED RAFI P V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G53">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H53">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I53">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J53">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K53">
+        <is>
+          <t xml:space="preserve">customer needed size not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="65">
+        <v>52</v>
+      </c>
+      <c t="inlineStr" r="B54">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C54">
+        <is>
+          <t xml:space="preserve">nokhul</t>
+        </is>
+      </c>
+      <c r="D54" s="65">
+        <v>9497613077</v>
+      </c>
+      <c t="inlineStr" r="E54">
+        <is>
+          <t xml:space="preserve">11-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F54">
+        <is>
+          <t xml:space="preserve">MUHAMMED RAFI P V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G54">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H54">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I54">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J54">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K54">
+        <is>
+          <t xml:space="preserve">they will decide after confirming with their family in two days</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="65">
+        <v>53</v>
+      </c>
+      <c t="inlineStr" r="B55">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C55">
+        <is>
+          <t xml:space="preserve">rifad</t>
+        </is>
+      </c>
+      <c r="D55" s="65">
+        <v>9645163532</v>
+      </c>
+      <c t="inlineStr" r="E55">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F55">
+        <is>
+          <t xml:space="preserve">MUHAMMED RAFI P V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G55">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H55">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I55">
+        <is>
+          <t xml:space="preserve">BUDGET RESTRICTIONS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J55">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K55">
+        <is>
+          <t xml:space="preserve">customer anethre store visited</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="65">
+        <v>54</v>
+      </c>
+      <c t="inlineStr" r="B56">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C56">
+        <is>
+          <t xml:space="preserve">RIZWAN</t>
+        </is>
+      </c>
+      <c r="D56" s="65">
+        <v>9746004858</v>
+      </c>
+      <c t="inlineStr" r="E56">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F56">
+        <is>
+          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G56">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H56">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I56">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J56">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K56">
+        <is>
+          <t xml:space="preserve">CUSTOMER NEED TIME TO CONFIRM</t>
         </is>
       </c>
     </row>

--- a/data/lossofsale_sg_edappal.xlsx
+++ b/data/lossofsale_sg_edappal.xlsx
@@ -3131,6 +3131,801 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" s="65">
+        <v>55</v>
+      </c>
+      <c t="inlineStr" r="B57">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C57">
+        <is>
+          <t xml:space="preserve">ajith</t>
+        </is>
+      </c>
+      <c r="D57" s="65">
+        <v>8943409950</v>
+      </c>
+      <c t="inlineStr" r="E57">
+        <is>
+          <t xml:space="preserve">04-04-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F57">
+        <is>
+          <t xml:space="preserve">SHAHEEN</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G57">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H57">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I57">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J57">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K57">
+        <is>
+          <t xml:space="preserve">CHECKING FOR PRICE AND COLLECTION</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="65">
+        <v>56</v>
+      </c>
+      <c t="inlineStr" r="B58">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C58">
+        <is>
+          <t xml:space="preserve">aslam</t>
+        </is>
+      </c>
+      <c r="D58" s="65">
+        <v>7994224600</v>
+      </c>
+      <c t="inlineStr" r="E58">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F58">
+        <is>
+          <t xml:space="preserve">MUHAMMED RAFI P V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G58">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H58">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I58">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J58">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K58">
+        <is>
+          <t xml:space="preserve">collections and prices</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="65">
+        <v>57</v>
+      </c>
+      <c t="inlineStr" r="B59">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C59">
+        <is>
+          <t xml:space="preserve">anshif</t>
+        </is>
+      </c>
+      <c r="D59" s="65">
+        <v>7736155435</v>
+      </c>
+      <c t="inlineStr" r="E59">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F59">
+        <is>
+          <t xml:space="preserve">AKSHAY. V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G59">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H59">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I59">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J59">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K59">
+        <is>
+          <t xml:space="preserve">CUSTOMER WILL DECIDE TMRW</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="65">
+        <v>58</v>
+      </c>
+      <c t="inlineStr" r="B60">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C60">
+        <is>
+          <t xml:space="preserve">MUSTHAQ</t>
+        </is>
+      </c>
+      <c r="D60" s="65">
+        <v>7994165151</v>
+      </c>
+      <c t="inlineStr" r="E60">
+        <is>
+          <t xml:space="preserve">03-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F60">
+        <is>
+          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G60">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H60">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I60">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J60">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K60">
+        <is>
+          <t xml:space="preserve">WILL DECIDE TMRW</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="65">
+        <v>59</v>
+      </c>
+      <c t="inlineStr" r="B61">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C61">
+        <is>
+          <t xml:space="preserve">vishnu</t>
+        </is>
+      </c>
+      <c r="D61" s="65">
+        <v>6235500369</v>
+      </c>
+      <c t="inlineStr" r="E61">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F61">
+        <is>
+          <t xml:space="preserve">SREEJESH C S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G61">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H61">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I61">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J61">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K61">
+        <is>
+          <t xml:space="preserve">loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="65">
+        <v>60</v>
+      </c>
+      <c t="inlineStr" r="B62">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C62">
+        <is>
+          <t xml:space="preserve">FARHAN</t>
+        </is>
+      </c>
+      <c r="D62" s="65">
+        <v>7034108801</v>
+      </c>
+      <c t="inlineStr" r="E62">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F62">
+        <is>
+          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G62">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H62">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I62">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J62">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K62">
+        <is>
+          <t xml:space="preserve">CUSTOMER NEEDED BLACK SUIT WITH HEAVY STONE WORK</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="65">
+        <v>61</v>
+      </c>
+      <c t="inlineStr" r="B63">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C63">
+        <is>
+          <t xml:space="preserve">amjith</t>
+        </is>
+      </c>
+      <c r="D63" s="65">
+        <v>8086437713</v>
+      </c>
+      <c t="inlineStr" r="E63">
+        <is>
+          <t xml:space="preserve">08-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F63">
+        <is>
+          <t xml:space="preserve">MUHAMMED RAFI P V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G63">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H63">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I63">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J63">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K63">
+        <is>
+          <t xml:space="preserve">they will decide after confirming with their family in two days</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="65">
+        <v>62</v>
+      </c>
+      <c t="inlineStr" r="B64">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C64">
+        <is>
+          <t xml:space="preserve">asarudheen</t>
+        </is>
+      </c>
+      <c r="D64" s="65">
+        <v>7025525525</v>
+      </c>
+      <c t="inlineStr" r="E64">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F64">
+        <is>
+          <t xml:space="preserve">MUHAMMED RAFI P V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G64">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H64">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I64">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J64">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K64">
+        <is>
+          <t xml:space="preserve">tomorrow will confirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="65">
+        <v>63</v>
+      </c>
+      <c t="inlineStr" r="B65">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C65">
+        <is>
+          <t xml:space="preserve">ashif</t>
+        </is>
+      </c>
+      <c r="D65" s="65">
+        <v>9061234273</v>
+      </c>
+      <c t="inlineStr" r="E65">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F65">
+        <is>
+          <t xml:space="preserve">SHAHEEN</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G65">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H65">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I65">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J65">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K65">
+        <is>
+          <t xml:space="preserve">full work</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="65">
+        <v>64</v>
+      </c>
+      <c t="inlineStr" r="B66">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C66">
+        <is>
+          <t xml:space="preserve">iqbal</t>
+        </is>
+      </c>
+      <c r="D66" s="65">
+        <v>8589378337</v>
+      </c>
+      <c t="inlineStr" r="E66">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F66">
+        <is>
+          <t xml:space="preserve">SHAHEEN</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G66">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H66">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I66">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J66">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K66">
+        <is>
+          <t xml:space="preserve">CHECKING FOR PRICE AND COLLECTION</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="65">
+        <v>65</v>
+      </c>
+      <c t="inlineStr" r="B67">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C67">
+        <is>
+          <t xml:space="preserve">Adhil</t>
+        </is>
+      </c>
+      <c r="D67" s="65">
+        <v>9747291612</v>
+      </c>
+      <c t="inlineStr" r="E67">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F67">
+        <is>
+          <t xml:space="preserve">AKSHAY. V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G67">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H67">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I67">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J67">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K67">
+        <is>
+          <t xml:space="preserve">double breasted</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="65">
+        <v>66</v>
+      </c>
+      <c t="inlineStr" r="B68">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C68">
+        <is>
+          <t xml:space="preserve">MANAS</t>
+        </is>
+      </c>
+      <c r="D68" s="65">
+        <v>9447424128</v>
+      </c>
+      <c t="inlineStr" r="E68">
+        <is>
+          <t xml:space="preserve">17-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F68">
+        <is>
+          <t xml:space="preserve">MUHAMMED ANSHIF C.K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G68">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H68">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I68">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J68">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K68">
+        <is>
+          <t xml:space="preserve">WILL FINALIZE TOMORROW</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="65">
+        <v>67</v>
+      </c>
+      <c t="inlineStr" r="B69">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C69">
+        <is>
+          <t xml:space="preserve">sadiq</t>
+        </is>
+      </c>
+      <c r="D69" s="65">
+        <v>9744566707</v>
+      </c>
+      <c t="inlineStr" r="E69">
+        <is>
+          <t xml:space="preserve">05-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F69">
+        <is>
+          <t xml:space="preserve">MUHAMMED RAFI P V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G69">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H69">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I69">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J69">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K69">
+        <is>
+          <t xml:space="preserve">will decide after two days confirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="65">
+        <v>68</v>
+      </c>
+      <c t="inlineStr" r="B70">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C70">
+        <is>
+          <t xml:space="preserve">shabu</t>
+        </is>
+      </c>
+      <c r="D70" s="65">
+        <v>9526561242</v>
+      </c>
+      <c t="inlineStr" r="E70">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F70">
+        <is>
+          <t xml:space="preserve">MUHAMMED RAFI P V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G70">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H70">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I70">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J70">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K70">
+        <is>
+          <t xml:space="preserve">customer needed indowestern model but size too small</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="65">
+        <v>69</v>
+      </c>
+      <c t="inlineStr" r="B71">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C71">
+        <is>
+          <t xml:space="preserve">nihal</t>
+        </is>
+      </c>
+      <c r="D71" s="65">
+        <v>8086202129</v>
+      </c>
+      <c t="inlineStr" r="E71">
+        <is>
+          <t xml:space="preserve">19-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F71">
+        <is>
+          <t xml:space="preserve">MUHAMMED RAFI P V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G71">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H71">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I71">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J71">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K71">
+        <is>
+          <t xml:space="preserve">they will decide after confirming with their family in two days</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
